--- a/biology/Botanique/Dioscorea_elephantipes/Dioscorea_elephantipes.xlsx
+++ b/biology/Botanique/Dioscorea_elephantipes/Dioscorea_elephantipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioscorea elephantipes est une espèce de plantes tubéreuses du genre Dioscorea de la famille des Dioscoreaceae. Elle est originaire du sud-ouest de l'Afrique du Sud, incluant la région du Cap.
 Elle est surnommée Pied d'éléphant en raison de sa grosse tige tubéreuse, qui croît très lentement, mais peut atteindre une taille considérable, jusqu'à 3 m de circonférence et 1 m de hauteur.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Testudinaria elephantipes</t>
         </is>
